--- a/preAnnotation/NormScores_Summer.xlsx
+++ b/preAnnotation/NormScores_Summer.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helengent/Desktop/Irony-Recognition/preAnnotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{221B5DC2-DC95-F946-8AC3-536C70186A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126156E3-8CF1-0240-9A79-95200F13083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormScores" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1220,12 +1220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>108</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -7626,18 +7625,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W91">
-    <filterColumn colId="14">
-      <filters blank="1">
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters blank="1">
-        <filter val="I"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W90">
     <sortCondition ref="U2:U90"/>
   </sortState>
